--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279496.1823597071</v>
+        <v>277608.6008433051</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>283026.327786761</v>
+        <v>576320.7580249282</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>303.5313813159055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>372.5228553937968</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>130.9809232457614</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>100.5586027548383</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>231.9123510189209</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>123.101072020527</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>152.0983000926682</v>
       </c>
       <c r="U7" t="n">
-        <v>208.3063349501749</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>118.7802976340888</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>195.0855717148728</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>88.06311349350429</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>236.3497275625263</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527404</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>39.02414356983101</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>106.8563186022165</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>70.98684734308382</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>199.0814306469979</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>193.4842382238521</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>244.1034621675911</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>117.3918026294323</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>156.5918462324803</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>110.3923605146222</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>234.3342112593033</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>10.00886850234466</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>151.2754547091903</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801207</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>58.2836418846164</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571493</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>58.84008750083436</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.832462274153</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1560.797780174034</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C2" t="n">
-        <v>1191.835263233623</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>1575.27830217458</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>1189.490049576336</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>778.5041447867286</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>360.5403366849155</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4373,7 +4373,7 @@
         <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>1947.397620238156</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415.489254012808</v>
+        <v>322.5758555962227</v>
       </c>
       <c r="C4" t="n">
-        <v>415.489254012808</v>
+        <v>322.5758555962227</v>
       </c>
       <c r="D4" t="n">
-        <v>415.489254012808</v>
+        <v>322.5758555962227</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>322.5758555962227</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>322.5758555962227</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>322.5758555962227</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>597.1377188430478</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>597.1377188430478</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>597.1377188430478</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>597.1377188430478</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>597.1377188430478</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X4" t="n">
-        <v>597.1377188430478</v>
+        <v>322.5758555962227</v>
       </c>
       <c r="Y4" t="n">
-        <v>597.1377188430478</v>
+        <v>322.5758555962227</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9071733620844</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="C5" t="n">
-        <v>584.9446564216728</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="D5" t="n">
-        <v>584.9446564216728</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="E5" t="n">
-        <v>199.1564038234285</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>192.2109030742251</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>178.287499012816</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>178.287499012816</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4598,19 @@
         <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.512263598976</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X5" t="n">
-        <v>1344.046505337896</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9071733620844</v>
+        <v>1597.808290699805</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,40 +4647,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.3016257164451</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="C7" t="n">
-        <v>488.3016257164451</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="D7" t="n">
-        <v>338.1849863041093</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="U7" t="n">
-        <v>488.3016257164451</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="V7" t="n">
-        <v>488.3016257164451</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="W7" t="n">
-        <v>488.3016257164451</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="X7" t="n">
-        <v>488.3016257164451</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="Y7" t="n">
-        <v>488.3016257164451</v>
+        <v>426.3476790823676</v>
       </c>
     </row>
     <row r="8">
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2522.140302928424</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2522.140302928424</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2268.378517566515</v>
+        <v>2323.915470287066</v>
       </c>
       <c r="V8" t="n">
-        <v>1937.315630222944</v>
+        <v>2323.915470287066</v>
       </c>
       <c r="W8" t="n">
-        <v>1937.315630222944</v>
+        <v>2323.915470287066</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.315630222944</v>
+        <v>2323.915470287066</v>
       </c>
       <c r="Y8" t="n">
-        <v>1937.315630222944</v>
+        <v>2323.915470287066</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4884,10 +4884,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5993065148977</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5993065148977</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148977</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>491.0296857481896</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>491.0296857481896</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="V10" t="n">
-        <v>489.3918856584278</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W10" t="n">
-        <v>489.3918856584278</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X10" t="n">
-        <v>489.3918856584278</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.5993065148977</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5018,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5060,28 +5060,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750119</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M12" t="n">
-        <v>1156.807040804714</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N12" t="n">
-        <v>1961.218619068864</v>
+        <v>1667.648898594694</v>
       </c>
       <c r="O12" t="n">
-        <v>2209.972033152826</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>545.1765965867976</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C13" t="n">
-        <v>545.1765965867976</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D13" t="n">
-        <v>395.0599571744618</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>395.0599571744618</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>248.1700096765515</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>248.1700096765515</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
@@ -5230,19 +5230,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150547</v>
+        <v>920.3704617344995</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170373</v>
+        <v>692.3809108364821</v>
       </c>
       <c r="Y13" t="n">
-        <v>726.8250614170373</v>
+        <v>584.4452354807079</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5297,28 +5297,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>836.4717212750119</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M15" t="n">
-        <v>1156.807040804714</v>
+        <v>1771.161069819836</v>
       </c>
       <c r="N15" t="n">
-        <v>1501.327696442332</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="O15" t="n">
-        <v>2033.878325127062</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.0324822735073</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C16" t="n">
-        <v>337.0962993456004</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5434,22 +5434,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5473,13 +5473,13 @@
         <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>1043.139428163128</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170374</v>
+        <v>1043.139428163128</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0324822735073</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5507,25 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>188.5094715667645</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>599.3997404112772</v>
       </c>
       <c r="L18" t="n">
-        <v>1120.26893587578</v>
+        <v>829.3628462796264</v>
       </c>
       <c r="M18" t="n">
-        <v>1440.604255405482</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N18" t="n">
-        <v>1785.124911043099</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O18" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>674.9958217162123</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C19" t="n">
-        <v>506.0596387883054</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>506.0596387883054</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883054</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5704,19 +5704,19 @@
         <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>1192.40254265119</v>
+        <v>844.0280401273992</v>
       </c>
       <c r="W19" t="n">
-        <v>902.9853726142296</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="X19" t="n">
-        <v>674.9958217162123</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="Y19" t="n">
-        <v>674.9958217162123</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5795,7 +5795,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>452.5377573864724</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>772.8730769161741</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.284655180325</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2246.748416482984</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>731.6365520183391</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C22" t="n">
-        <v>562.7003690904323</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>562.7003690904323</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904323</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5911,10 +5911,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.063975947119</v>
@@ -5923,7 +5923,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1180.418682059887</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1180.418682059887</v>
+        <v>1340.742688504892</v>
       </c>
       <c r="V22" t="n">
-        <v>1180.418682059887</v>
+        <v>1340.742688504892</v>
       </c>
       <c r="W22" t="n">
-        <v>1180.418682059887</v>
+        <v>1340.742688504892</v>
       </c>
       <c r="X22" t="n">
-        <v>952.4291311618692</v>
+        <v>1112.753137606874</v>
       </c>
       <c r="Y22" t="n">
-        <v>731.6365520183391</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="23">
@@ -5987,7 +5987,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>452.5377573864724</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M24" t="n">
-        <v>1131.836193506796</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="N24" t="n">
-        <v>1476.356849144414</v>
+        <v>1478.840140721311</v>
       </c>
       <c r="O24" t="n">
-        <v>2145.820610447073</v>
+        <v>2148.303902023971</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>394.5250474102528</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C25" t="n">
-        <v>394.5250474102528</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D25" t="n">
-        <v>394.5250474102528</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102528</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.408835694648</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.408835694648</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.408835694648</v>
+        <v>1262.215047063657</v>
       </c>
       <c r="V25" t="n">
-        <v>1132.724347488761</v>
+        <v>1262.215047063657</v>
       </c>
       <c r="W25" t="n">
-        <v>843.3071774518003</v>
+        <v>972.7978770266959</v>
       </c>
       <c r="X25" t="n">
-        <v>615.3176265537829</v>
+        <v>744.8083261286786</v>
       </c>
       <c r="Y25" t="n">
-        <v>394.5250474102528</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>327.180197328635</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>794.1790493843997</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>889.3582447451981</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C28" t="n">
-        <v>720.4220618172913</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D28" t="n">
-        <v>570.3054224049555</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>422.3923288225624</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>275.5023813246521</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>107.3270596444724</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>107.3270596444724</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585747</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>1346.11278095266</v>
       </c>
       <c r="V28" t="n">
-        <v>1298.996260473455</v>
+        <v>1091.428292746773</v>
       </c>
       <c r="W28" t="n">
-        <v>1298.996260473455</v>
+        <v>802.0111227098125</v>
       </c>
       <c r="X28" t="n">
-        <v>1071.006709575438</v>
+        <v>802.0111227098125</v>
       </c>
       <c r="Y28" t="n">
-        <v>1071.006709575438</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,16 +6449,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>865.5852378527474</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1364.414563824402</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>600.4439501541573</v>
+        <v>620.7342676598904</v>
       </c>
       <c r="C31" t="n">
-        <v>487.2686325076212</v>
+        <v>507.5589500133543</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766562</v>
+        <v>507.5589500133543</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756339</v>
+        <v>415.406721712332</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590944</v>
+        <v>324.2776394957924</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028586</v>
+        <v>211.8631830969838</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
@@ -6628,43 +6628,43 @@
         <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
         <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1390.574594818802</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894287</v>
+        <v>1191.650971894286</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386972</v>
+        <v>957.9946671386963</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220507</v>
+        <v>785.7659815220497</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.3315497030262</v>
+        <v>620.7342676598904</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,16 +6716,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6765,31 +6765,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>1250.073193498324</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M33" t="n">
-        <v>1570.408513028025</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>2374.820091292176</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
         <v>2623.573505376138</v>
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
         <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6917,25 +6917,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649697</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,31 +7160,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649693</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605672</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7549,16 +7549,16 @@
         <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,10 +7570,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7594,7 +7594,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,10 +9720,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,16 +9966,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10440,7 +10440,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10449,7 +10449,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>109.8896847977051</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520961</v>
+        <v>111.7283347498783</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>77.62862567512853</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>87.44156768959306</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,16 +23944,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>58.65340509997594</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>42.41953616899985</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>104.155758428957</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>129.645506166097</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,16 +24412,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>87.52844946898108</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>51.903141139274</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>100.4103769619273</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>134.961897689387</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>35.42692985436266</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571488</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523569</v>
+        <v>54.76109577523574</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>104.5413092227033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-7.338574320458043e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>307890.6636991064</v>
       </c>
       <c r="C2" t="n">
+        <v>307890.6636991065</v>
+      </c>
+      <c r="D2" t="n">
+        <v>307890.6636991062</v>
+      </c>
+      <c r="E2" t="n">
+        <v>293271.7948032813</v>
+      </c>
+      <c r="F2" t="n">
+        <v>293271.7948032813</v>
+      </c>
+      <c r="G2" t="n">
+        <v>293271.7948032816</v>
+      </c>
+      <c r="H2" t="n">
+        <v>293271.7948032813</v>
+      </c>
+      <c r="I2" t="n">
+        <v>293271.7948032815</v>
+      </c>
+      <c r="J2" t="n">
+        <v>293271.7948032813</v>
+      </c>
+      <c r="K2" t="n">
+        <v>305116.6030089529</v>
+      </c>
+      <c r="L2" t="n">
+        <v>307890.6636991062</v>
+      </c>
+      <c r="M2" t="n">
         <v>307890.6636991061</v>
       </c>
-      <c r="D2" t="n">
-        <v>307890.6636991064</v>
-      </c>
-      <c r="E2" t="n">
-        <v>293271.7948032815</v>
-      </c>
-      <c r="F2" t="n">
-        <v>293271.7948032814</v>
-      </c>
-      <c r="G2" t="n">
-        <v>293271.7948032813</v>
-      </c>
-      <c r="H2" t="n">
-        <v>293271.7948032815</v>
-      </c>
-      <c r="I2" t="n">
-        <v>293271.7948032816</v>
-      </c>
-      <c r="J2" t="n">
-        <v>293271.7948032814</v>
-      </c>
-      <c r="K2" t="n">
-        <v>305116.6030089523</v>
-      </c>
-      <c r="L2" t="n">
-        <v>307890.6636991063</v>
-      </c>
-      <c r="M2" t="n">
-        <v>307890.6636991063</v>
-      </c>
       <c r="N2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284563</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086679</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284562</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758688</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.7936905758901</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905758876</v>
+        <v>787.7936905758888</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477243</v>
+        <v>18952.4162047724</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.58093189639</v>
       </c>
       <c r="M4" t="n">
         <v>23206.58093189636</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26482,22 +26482,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,43 +26522,43 @@
         <v>-503995.4327594665</v>
       </c>
       <c r="C6" t="n">
-        <v>85972.44645507762</v>
+        <v>85972.446455078</v>
       </c>
       <c r="D6" t="n">
-        <v>85972.44645507782</v>
+        <v>85972.44645507768</v>
       </c>
       <c r="E6" t="n">
-        <v>-324663.3613129071</v>
+        <v>-324760.8204388793</v>
       </c>
       <c r="F6" t="n">
-        <v>200496.675163989</v>
+        <v>200399.2160380166</v>
       </c>
       <c r="G6" t="n">
-        <v>200496.6751639888</v>
+        <v>200399.2160380167</v>
       </c>
       <c r="H6" t="n">
-        <v>200496.6751639891</v>
+        <v>200399.2160380167</v>
       </c>
       <c r="I6" t="n">
-        <v>200496.6751639891</v>
+        <v>200399.2160380168</v>
       </c>
       <c r="J6" t="n">
-        <v>24073.4559713959</v>
+        <v>23975.99684542364</v>
       </c>
       <c r="K6" t="n">
-        <v>145373.3729711115</v>
+        <v>145354.8792331777</v>
       </c>
       <c r="L6" t="n">
         <v>176626.0701463177</v>
       </c>
       <c r="M6" t="n">
-        <v>52167.96171334739</v>
+        <v>52167.96171334716</v>
       </c>
       <c r="N6" t="n">
-        <v>186968.9769471845</v>
+        <v>186968.9769471844</v>
       </c>
       <c r="O6" t="n">
-        <v>186968.9769471846</v>
+        <v>186968.9769471844</v>
       </c>
       <c r="P6" t="n">
         <v>142806.3716443388</v>
@@ -26710,22 +26710,22 @@
         <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26744,34 +26744,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108363</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>20.39139144845166</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.71508326225683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>25.18996559603374</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>111.5869361951806</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>150.0180190533409</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>28.83024422433422</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>72.93680536541612</v>
       </c>
       <c r="U7" t="n">
-        <v>77.97553929180279</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>55.63541517488271</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>56.1385957934165</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>124.0824254565146</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>15.78791576130166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.273292582482099e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31148,19 +31148,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323551</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31385,19 +31385,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31601,10 +31601,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423996</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,31 +31832,31 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>188.758152486601</v>
       </c>
       <c r="P12" t="n">
-        <v>163.1953899965976</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,31 +32069,31 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>328.5336386922561</v>
       </c>
       <c r="O15" t="n">
-        <v>286.6638531320888</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,25 +32312,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>92.96111668633735</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>386.0590603056891</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32339,10 +32339,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,25 +32549,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>126.0475280469437</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>362.5890066571938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>295.5819451907238</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>148.1449823495585</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,16 +33199,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,25 +33260,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>155.8673437717546</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33287,10 +33287,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,19 +33497,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>349.1732577503169</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33521,13 +33521,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,7 +33743,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
         <v>224.6051223555648</v>
@@ -33761,10 +33761,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,7 +33980,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
         <v>224.6051223555648</v>
@@ -33995,13 +33995,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,31 +34208,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34445,28 +34445,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
@@ -35498,16 +35498,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>440.0242273188861</v>
       </c>
       <c r="P12" t="n">
-        <v>347.6837512222045</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>126.6237980382196</v>
@@ -35732,19 +35732,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>676.5343009524763</v>
       </c>
       <c r="O15" t="n">
-        <v>537.9299279643739</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>92.21452536007949</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>618.3450258292741</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>310.5358892725506</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>686.1600364851754</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>480.0703064163308</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>471.7160121775401</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>503.8680060319748</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>581.4592232739019</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>572.6057846157851</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>572.6057846157851</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
